--- a/WSC/Test Report/Procurement & Inventory/WSC Procurement & Inventory_Assets.xlsx
+++ b/WSC/Test Report/Procurement & Inventory/WSC Procurement & Inventory_Assets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Asset" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="266">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -891,6 +891,30 @@
     <t>Page is  saved successfully.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user  have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select, Read,Write,Create, submit, cancel, amend</t>
+    </r>
+  </si>
+  <si>
     <t>TC4_Asset_Movement</t>
   </si>
   <si>
@@ -1058,40 +1082,16 @@
       <t>Select, Read,Write,Create, submit, cancel, amend</t>
     </r>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user  have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Select, Read,Write,Create, submit, cancel, amend</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1262,7 +1262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,12 +1272,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,16 +1597,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1621,7 +1615,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1645,16 +1639,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1663,85 +1657,85 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1767,9 +1761,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1785,19 +1776,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2335,8 +2329,8 @@
   <sheetPr/>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2411,10 +2405,10 @@
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2427,10 +2421,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2479,16 +2473,16 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="45" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2497,7 +2491,7 @@
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2511,24 +2505,24 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2537,21 +2531,21 @@
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:10">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2563,21 +2557,21 @@
       <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2589,21 +2583,21 @@
       <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2615,7 +2609,7 @@
       <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="4">
@@ -2624,7 +2618,7 @@
       <c r="G14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="4">
@@ -2633,7 +2627,7 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2645,21 +2639,21 @@
       <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="60" spans="1:10">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2671,21 +2665,21 @@
       <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:10">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2697,21 +2691,21 @@
       <c r="D17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" spans="1:10">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2723,21 +2717,21 @@
       <c r="D18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2749,21 +2743,21 @@
       <c r="D19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="60" spans="1:10">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2775,21 +2769,21 @@
       <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="45" spans="1:10">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2801,21 +2795,21 @@
       <c r="D21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="45" spans="1:10">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2827,21 +2821,21 @@
       <c r="D22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="45" spans="1:10">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2853,21 +2847,21 @@
       <c r="D23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:10">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2879,21 +2873,21 @@
       <c r="D24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="45" spans="1:10">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2905,21 +2899,21 @@
       <c r="D25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:10">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2931,7 +2925,7 @@
       <c r="D26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="4">
@@ -2940,7 +2934,7 @@
       <c r="G26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="9" t="s">
         <v>34</v>
       </c>
       <c r="I26" s="4">
@@ -2949,7 +2943,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="45" spans="1:10">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2961,21 +2955,21 @@
       <c r="D27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2987,21 +2981,21 @@
       <c r="D28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="45" spans="1:10">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>19</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3013,21 +3007,21 @@
       <c r="D29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>20</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -3039,21 +3033,21 @@
       <c r="D30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:10">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>21</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3065,21 +3059,21 @@
       <c r="D31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:10">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -3091,21 +3085,21 @@
       <c r="D32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>23</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3117,21 +3111,21 @@
       <c r="D33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3143,21 +3137,21 @@
       <c r="D34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>25</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3169,21 +3163,21 @@
       <c r="D35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="45" spans="1:10">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3195,21 +3189,21 @@
       <c r="D36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>27</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3221,7 +3215,7 @@
       <c r="D37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="4">
@@ -3230,7 +3224,7 @@
       <c r="G37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="9" t="s">
         <v>34</v>
       </c>
       <c r="I37" s="4">
@@ -3239,7 +3233,7 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>28</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3251,21 +3245,21 @@
       <c r="D38" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3277,21 +3271,21 @@
       <c r="D39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3303,21 +3297,21 @@
       <c r="D40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3329,21 +3323,21 @@
       <c r="D41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:10">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>32</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3355,21 +3349,21 @@
       <c r="D42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:10">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3381,21 +3375,21 @@
       <c r="D43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:10">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -3407,21 +3401,21 @@
       <c r="D44" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:10">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>35</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -3433,21 +3427,21 @@
       <c r="D45" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:10">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>36</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -3459,21 +3453,21 @@
       <c r="D46" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:10">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>37</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3485,21 +3479,21 @@
       <c r="D47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:10">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>38</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3511,21 +3505,21 @@
       <c r="D48" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:10">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>39</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -3537,21 +3531,21 @@
       <c r="D49" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>40</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -3563,21 +3557,21 @@
       <c r="D50" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="30" spans="1:10">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -3589,62 +3583,62 @@
       <c r="D51" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:1">
-      <c r="A53" s="12"/>
+      <c r="A53" s="11"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:5">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A55" s="12"/>
-      <c r="B55" s="16" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A56" s="12"/>
-      <c r="B56" s="16" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3664,8 +3658,8 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3733,10 +3727,10 @@
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -3747,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3791,22 +3785,22 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -3817,22 +3811,22 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:8">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3841,19 +3835,19 @@
       <c r="D11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:8">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3865,19 +3859,19 @@
       <c r="D12" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -3889,19 +3883,19 @@
       <c r="D13" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3913,19 +3907,19 @@
       <c r="D14" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3937,19 +3931,19 @@
       <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:8">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3961,19 +3955,19 @@
       <c r="D16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3985,19 +3979,19 @@
       <c r="D17" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:8">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4009,19 +4003,19 @@
       <c r="D18" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4033,19 +4027,19 @@
       <c r="D19" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4057,60 +4051,60 @@
       <c r="D20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4130,8 +4124,8 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4179,8 +4173,12 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4195,10 +4193,10 @@
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -4209,10 +4207,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -4253,22 +4251,22 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -4279,22 +4277,22 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>182</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:8">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>183</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -4303,19 +4301,19 @@
       <c r="D11" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:8">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4327,19 +4325,19 @@
       <c r="D12" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -4351,19 +4349,19 @@
       <c r="D13" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4375,19 +4373,19 @@
       <c r="D14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4399,19 +4397,19 @@
       <c r="D15" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:8">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4423,19 +4421,19 @@
       <c r="D16" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4447,139 +4445,139 @@
       <c r="D17" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:8">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>8</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="G18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="30" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>9</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="11"/>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="30" spans="1:8">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>10</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="11"/>
+      <c r="G20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="30" spans="1:8">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>11</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="11"/>
+      <c r="G21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="30" spans="1:8">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>12</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="11"/>
+      <c r="G22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:8">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -4591,19 +4589,19 @@
       <c r="D23" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4615,19 +4613,19 @@
       <c r="D24" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -4639,19 +4637,19 @@
       <c r="D25" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -4663,19 +4661,19 @@
       <c r="D26" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4687,19 +4685,19 @@
       <c r="D27" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:8">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -4711,54 +4709,62 @@
       <c r="D28" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H28" s="4"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4776,8 +4782,8 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4797,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -4825,8 +4831,12 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4841,24 +4851,24 @@
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -4879,7 +4889,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4899,22 +4909,22 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -4925,9 +4935,9 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>224</v>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4937,79 +4947,79 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>225</v>
+      <c r="B11" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:8">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5019,21 +5029,21 @@
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5045,300 +5055,300 @@
       <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:8">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>8</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="75" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>9</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:8">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>10</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="30" spans="1:8">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>11</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="11"/>
+      <c r="D21" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="45" spans="1:8">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>12</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="11"/>
+      <c r="D22" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:8">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:8">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G24" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:8">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>25</v>
       </c>
     </row>
